--- a/GameDesign/ExcelData/Camp_Data.xlsx
+++ b/GameDesign/ExcelData/Camp_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231367FB-8582-42D7-8248-6D75F737BEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E41025F-785B-4D4B-8098-C816DCD3A129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2796" windowWidth="22248" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/Camp_Data.xlsx
+++ b/GameDesign/ExcelData/Camp_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E41025F-785B-4D4B-8098-C816DCD3A129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84437B6-2631-4876-A3B9-0C1A9608B0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,7 +412,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/Camp_Data.xlsx
+++ b/GameDesign/ExcelData/Camp_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84437B6-2631-4876-A3B9-0C1A9608B0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D0D34A-BD76-4EBC-9B5D-949CF94987BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,24 +51,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Camp1</t>
+    <t>campName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>campBgm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmbienceLoop_Shelter_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camp_Level_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camp_Level_2</t>
+  </si>
+  <si>
+    <t>Camp_Level_3</t>
+  </si>
+  <si>
+    <t>Camp_Level_4</t>
+  </si>
+  <si>
+    <t>Nov.28 1950
+Evacuation Day 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Nov.26 1950
-Evacuation Day 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>campName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>campBgm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AmbienceLoop_Shelter_01</t>
+Evacuation Day 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nov.27 1950
+Evacuation Day 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nov.29 1950
+Evacuation Day 4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,14 +433,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="25.109375" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.77734375" customWidth="1"/>
@@ -454,10 +479,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
@@ -468,19 +493,79 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/Camp_Data.xlsx
+++ b/GameDesign/ExcelData/Camp_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D0D34A-BD76-4EBC-9B5D-949CF94987BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D98BAC-AC6E-4385-BF2D-ACED18B184D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
